--- a/stepout_qc_code/scouting/dpdl/scouting_final_report.xlsx
+++ b/stepout_qc_code/scouting/dpdl/scouting_final_report.xlsx
@@ -7,7 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="defensive_midfielder" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="center_forward|striker" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="left_winger|right_winger" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="attacking_midfielder" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="central_midfielder" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="defensive_midfielder" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="left_back|right_back" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="center_back" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="goalkeeper" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +432,2299 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>absolute_score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_position_most_played</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total_assists</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>attempts_on_target_per_90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>dribbles_completed_per_90</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>chances_created_per_90</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>successful_touches_in_final_third_per_90</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>passes_completed_in_final_third_per_90</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nethan  Vaz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>625</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.032</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35.136</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mohit Mistri</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy B U-15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>602</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CENTER FORWARD</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.242524917</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.34551495</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.541528239</v>
+      </c>
+      <c r="K3" t="n">
+        <v>25.26578073</v>
+      </c>
+      <c r="L3" t="n">
+        <v>40.3654485</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yohan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>385</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.103896104</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.935064935</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.636363636</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34.12987013</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45.58441558</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shaurya Desai</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>614</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CENTER FORWARD</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.198697068</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.732899023</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.785016287</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32.54071661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44.70684039</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ayaan Mhatre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>510</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.764705882</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8823529409999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.235294118</v>
+      </c>
+      <c r="K6" t="n">
+        <v>21.88235294</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23.82352941</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Naman Kora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>523</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.7208413</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.03250478</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21.85468451</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17.208413</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sohil Sheikh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Footie First U-15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>390</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.692307692</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.923076923</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.461538462</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.692307692</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.923076923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chirag</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>493</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.912778905</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.912778905</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.277890467</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13.87423935</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20.0811359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dhron Pillai</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>427</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.053864169</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.632318501</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.210772834</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.798594848</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.323185012</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aarav Mavani</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>382</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>STRIKER</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.471204188</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.413612565</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.13612565</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20.02617801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>absolute_score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_position_most_played</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total_assists</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>attempts_on_target_per_90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>dribbles_completed_per_90</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>chances_created_per_90</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>successful_touches_in_final_third_per_90</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>passes_completed_in_final_third_per_90</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>crosses_per_90</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>short_passes_per_90</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Neel Amit Khandeparkar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>675</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RIGHT WINGER</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.666666667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>64.66666667</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.866666667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yuvraj Sandeep Kadam</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>690</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LEFT WINGER</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.130434783</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.608695652</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.043478261</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.26086957</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62.60869565</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.826086957</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.7826087</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nishit  Lala</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>599</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RIGHT WINGER</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.704507513</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.502504174</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.657762938</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45.97662771</v>
+      </c>
+      <c r="L4" t="n">
+        <v>52.58764608</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.305509182</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.21702838</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Samit  Mandhare</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>584</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LEFT WINGER</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.160958904</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.770547945</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.849315068</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.77054795</v>
+      </c>
+      <c r="L5" t="n">
+        <v>43.15068493</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.616438356</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18.18493151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amey Sharad Salvi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>464</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEFT WINGER</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.103448276</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.715517241</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.909482759</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34.9137931</v>
+      </c>
+      <c r="L6" t="n">
+        <v>37.82327586</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.581896552</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15.51724138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aditya Ragdwal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>449</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RIGHT WINGER</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.004454343</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.204899777</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.605790646</v>
+      </c>
+      <c r="K7" t="n">
+        <v>28.86414254</v>
+      </c>
+      <c r="L7" t="n">
+        <v>39.08685969</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.601336303</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.42761693</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aritra Upadhyay</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>470</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RIGHT WINGER</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.957446809</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.14893617</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.14893617</v>
+      </c>
+      <c r="K8" t="n">
+        <v>25.08510638</v>
+      </c>
+      <c r="L8" t="n">
+        <v>29.68085106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14.55319149</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asif Mohammed Shakil Shaikh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mumbai City Fc B U-15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>332</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RIGHT WINGER</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.710843373</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.355421687</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.524096386</v>
+      </c>
+      <c r="K9" t="n">
+        <v>37.95180723</v>
+      </c>
+      <c r="L9" t="n">
+        <v>37.95180723</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.084337349</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.74096386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ayush  Shinde</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>431</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RIGHT WINGER</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.879350348</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.044083527</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.714617169</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35.0812065</v>
+      </c>
+      <c r="L10" t="n">
+        <v>41.76334107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.626450116</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16.70533643</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aryan Mahtre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>429</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RIGHT WINGER</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.258741259</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.048951049</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.727272727</v>
+      </c>
+      <c r="K11" t="n">
+        <v>38.6013986</v>
+      </c>
+      <c r="L11" t="n">
+        <v>47.2027972</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.629370629</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15.73426573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>absolute_score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_position_most_played</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total_assists</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>progressive_passes_per_90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>short_passes_per_90</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>attempts_on_target_per_90</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>chances_created_per_90</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>dribbles_completed_per_90</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>through_balls_per_90</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>total_long_shot_on_target_per_90</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>total_forward_passes_per_90</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>69.22</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ryan  Pereira</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>690</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27.91304348</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.956521739</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.043478261</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.043478261</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.565217391</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.434782609</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15.13043478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Raghav Kanodia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>519</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.028901734</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22.5433526</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8670520229999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.121387283</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.601156069</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.682080925</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.48554913</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kshitij Padhi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>489</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.680981595</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27.2392638</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.656441718</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.656441718</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.36809816</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.576687117</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.920245399</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.96319018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shlok Lepcha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>369</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.195121951</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.97560976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.43902439</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.975609756</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.243902439</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.707317073</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.707317073</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.048780488</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kavish Badsiwal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>320</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.40625</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jaeden Gautam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>325</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.830769231</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.030769231000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.830769231</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.276923077</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.553846154</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.384615385</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.553846154</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.492307692</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maheep Singh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>246</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.731707317</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.146341463000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.365853659</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.756097561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tushar  Solanki</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Footie First U-15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ATTACKING MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.142857143</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.42857143</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>absolute_score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_position_most_played</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>total_assists</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>succ_interceptions_per_90</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>possession_retained_per_90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>progressive_passes_per_90</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>total_passes_per_90</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>chances_created_per_90</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>attempts_on_target_per_90</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>successful_ball_carry_per_90</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>through_balls_per_90</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>total_long_shot_on_target_per_90</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>long_passes_per_90</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>78.05</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Riddhiman  Das</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>648</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.555555556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.805555556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.583333333000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>43.194444447</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.722222222</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.472222222</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.305555556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.888888889</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.194444444</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.972222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Anirvinya Sarkar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>580</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.689655172</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.03448276</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.672413793</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30.72413793</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.327586207</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.948275862</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.98275862</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.672413793</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.327586207</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.775862069</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56.03</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ved Nandi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>554</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.873646209</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.635379061</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.198555957</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38.501805053</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.924187726</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.624548736</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.848375451</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.873646209</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.462093863</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.462093863</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Viharn Shetty</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>640</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.09375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.65625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28.96875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.109375</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.546875</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.875</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vishnu Keshu Rathod</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>459</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.039215686</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.294117647</v>
+      </c>
+      <c r="J6" t="n">
+        <v>41.960784315</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.921568627</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.392156863</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.450980392</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.725490196</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.392156863</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.588235294</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kumar  Badugu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>555</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.864864865</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.108108108</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.567567568</v>
+      </c>
+      <c r="J7" t="n">
+        <v>20.918918918</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.594594595</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.567567568</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.378378378</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.243243243</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.135135135</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.648648649</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41.35</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nirvaan Bhatt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>560</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.053571429</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.267857143</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>23.303571426</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.053571429</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.928571429</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8.517857143000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.017857143</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.964285714</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.482142857</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nirvaan  Jain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>520</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.057692308</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.173076923</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.980769231</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27.692307687</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.596153846</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.596153846</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.63461538</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.211538462</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.865384615</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yajat  Lal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>563</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.03374778</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.39076377</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.156305506</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16.625222025</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.479573712</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.037300178</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.357015986</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.435168739</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.238010657</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.319715808</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Soham D'Mello</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>520</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CENTRAL MIDFIELDER</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.807692308</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.442307692</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.807692308</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.153846151</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.038461538</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.519230769</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.846153846</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.807692308</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.519230769</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.173076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -741,7 +3041,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TSA 6</t>
+          <t>Tsa 6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -788,7 +3088,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Barca Grana RB</t>
+          <t>Barca Grana Rb</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -835,7 +3135,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>db 83</t>
+          <t>Db 83</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -874,6 +3174,1814 @@
       </c>
       <c r="M9" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>absolute_score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_position_most_played</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>succ_interceptions_per_90</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>crucial_defensive_actions_per_90</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>succ_tackles_per_90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>crosses_per_90</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>clearances</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>duels_per_90</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>succ_tackles_per_90</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>successful_ball_carry_per_90</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>long_passes_per_90</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>short_passes_per_90</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>total_forward_passes_per_90</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>progressive_passes_per_90</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tyrell Steven Fernandes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>690</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LEFT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>7.043478261</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.130434783</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.913043478</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.304347826</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.652173913</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.913043478</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10.56521739</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.652173913</v>
+      </c>
+      <c r="O2" t="n">
+        <v>36.26086957</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13.82608696</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.913043478</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38.57</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Manthan Sachin  Thapa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>595</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>11.19327731</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.453781513</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.512605042</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.420168067</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.605042017</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.512605042</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.075630252</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.302521008</v>
+      </c>
+      <c r="O3" t="n">
+        <v>35.8487395</v>
+      </c>
+      <c r="P3" t="n">
+        <v>21.32773109</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10.28571429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarvesh B</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>625</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5.328</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.456</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.784000000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20.448</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rishit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>565</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3.504424779</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.592920354</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.185840708</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.433628319</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.477876106</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.185840708</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.097345133</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>17.04424779</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.15044248</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.982300885</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Devang Talwatkar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>470</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3.638297872</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.765957447</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.340425532</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.382978723</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.574468085</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.340425532</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.680851064</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.765957447</v>
+      </c>
+      <c r="O6" t="n">
+        <v>18.57446809</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.957446809</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.021276596</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aaryn Dasgupta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>364</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEFT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6.181318681</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.483516484</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.472527473</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.494505495</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.247252747</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.472527473</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.203296703</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.494505495</v>
+      </c>
+      <c r="O7" t="n">
+        <v>30.65934066</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12.85714286</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.697802198</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arnav Pillai</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>426</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4.225352113</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.211267606</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.690140845</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.422535211</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.690140845</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.77464789</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.422535211</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18.38028169</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10.77464789</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.225352113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aryan Arvandekar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>399</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LEFT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>5.413533835</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.676691729</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.578947368</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.676691729</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.578947368</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.578947368</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.864661654</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.45112782</v>
+      </c>
+      <c r="O9" t="n">
+        <v>26.39097744</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15.56390977</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.639097744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Shivam Koli</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Footie First U-15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>476</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RIGHT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4.348739496</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.403361345</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.701680672</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.567226891</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.701680672</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.890756303</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.319327731</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.781512605</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.323529412</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arnav  Singh</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mumbai City Fc B U-15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>410</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LEFT SIDE BACK</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>8.12195122</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.658536585</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.195121951</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.219512195</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.87804878</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.195121951</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.951219512</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.658536585</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17.34146341</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.658536585</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.073170732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>absolute_score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_position_most_played</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>succ_interceptions_per_90</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>possession_retained_per_90</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>crucial_defensive_actions_per_90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>clearances</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>duels_per_90</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>succ_tackles_per_90</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>progressive_passes_per_90</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>total_passes_per_90</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>total_headed_shots_on_target</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39.12</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Zain</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>520</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4.153846154</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.057692308</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.153846154</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.903846154</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.134615385</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29.423076925</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shlok Jagtan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>580</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>6.517241379</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.706896552</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.706896552</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.327586207</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.620689655</v>
+      </c>
+      <c r="M3" t="n">
+        <v>32.896551722</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tanish</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>610</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6.049180328</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.557377048999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.786885246</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.147540984</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.06557377</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25.229508197</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parth  Talkokul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mumbai City FC A U-15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>610</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4.868852459</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.049180328</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.885245902</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.590163935</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.180327869</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.54098361</v>
+      </c>
+      <c r="M5" t="n">
+        <v>44.852459015</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rushil Kulkarni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>490</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3.673469388</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.87755102</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.367346939</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.734693878</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.204081633</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.591836735</v>
+      </c>
+      <c r="M6" t="n">
+        <v>23.510204077</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erwyn Basil D Souza</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mumbai City Fc B U-15</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>410</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10.53658537</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.26829268</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.414634146</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.195121951</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.512195122</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.512195122</v>
+      </c>
+      <c r="M7" t="n">
+        <v>24.585365852</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sabir Khan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>570</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4.421052632</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.789473684</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.052631579</v>
+      </c>
+      <c r="I8" t="n">
+        <v>42</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.315789474</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.368421053</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.578947368</v>
+      </c>
+      <c r="M8" t="n">
+        <v>24.631578951</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aarav</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy B U-15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>642</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4.626168224</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.728971963</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.523364486</v>
+      </c>
+      <c r="I9" t="n">
+        <v>49</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.140186916</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.962616822</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.186915888</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.214953271</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abdul Sheikh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Footie First U-15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>230</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10.56521739</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.2173913</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.13043478</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.782608696</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.260869565</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.47826087</v>
+      </c>
+      <c r="M10" t="n">
+        <v>21.521739126</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vikalp Tambe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>594</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CENTER BACK</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>5.151515152</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.818181818</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.757575758</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.606060606</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.515151515</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.727272727</v>
+      </c>
+      <c r="M11" t="n">
+        <v>36.21212121</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>absolute_score</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_game_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_position_most_played</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>total_saves</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>goal_conceded</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>goalkick_accuracy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>goalkeeper_throws_completed</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>punches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>handling</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>progressive_passes_per_90</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62.55</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dhveer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy B U-15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>572</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>66</v>
+      </c>
+      <c r="K2" t="n">
+        <v>53</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.933566434</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51.44</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Veer Shah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Barca Academy Blau</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>614</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>83</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>44</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.517915309</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40.51</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vedant Jiren</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Footie First U-15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>460</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94.44444444</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.630434783</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40.04</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rayan Sharma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>420</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>36</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77.77777777999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.142857143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38.99</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Shravan Salve</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D'Souza Football Academy A U-15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>640</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>68</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.109375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37.01</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aarav Rane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CFCI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>430</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>33</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.604651163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34.27</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarthak Chavan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The Soccer Academy U15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>402</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>52</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>96.875</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.925373134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aneesh Gadre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hungry Hearts Soccer School</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>281</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>52</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>92.30769230999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.804270463</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Abhishek Soni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mumbai Soccer Prodigies U15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>579</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>96.15384615000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>32</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.575129534</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Barca Grana U 15 Gk</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Barca Academy Grana</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>270</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GOALKEEPER</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.333333333</v>
       </c>
     </row>
   </sheetData>
